--- a/test2.xlsx
+++ b/test2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz 1 Pawełka" sheetId="1" r:id="R46717b84833a48ac"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz 1 Pawełka" sheetId="1" r:id="Rd6d863f0627f495f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz 1 Pawełka" sheetId="1" r:id="Rd6d863f0627f495f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz 1 Pawełka" sheetId="1" r:id="R03aad22d05354be6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz 1 Pawełka" sheetId="1" r:id="R03aad22d05354be6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz 1 Pawełka" sheetId="1" r:id="R47e437d4124f4d4d"/>
   </x:sheets>
 </x:workbook>
 </file>
